--- a/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
   <si>
     <t>#class</t>
   </si>
@@ -426,11 +426,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>是否创建</t>
+    <t>是否屏蔽创建</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Create(int)</t>
+    <t>Shield(int)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端属性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -979,13 +987,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,19 +1021,20 @@
     <col min="26" max="27" width="17.125" style="7" customWidth="1"/>
     <col min="28" max="31" width="9" style="7" customWidth="1"/>
     <col min="32" max="32" width="11" style="7" customWidth="1"/>
-    <col min="33" max="33" width="8.375" style="7" customWidth="1"/>
-    <col min="34" max="34" width="16.25" style="7" customWidth="1"/>
-    <col min="35" max="35" width="19.625" style="7" customWidth="1"/>
-    <col min="36" max="36" width="24.875" style="7" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="7"/>
+    <col min="33" max="33" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.375" style="7" customWidth="1"/>
+    <col min="35" max="35" width="16.25" style="7" customWidth="1"/>
+    <col min="36" max="36" width="19.625" style="7" customWidth="1"/>
+    <col min="37" max="37" width="24.875" style="7" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1120,19 +1129,22 @@
         <v>29</v>
       </c>
       <c r="AG2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1241,8 +1253,11 @@
       <c r="AJ3" s="3">
         <v>3</v>
       </c>
+      <c r="AK3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1340,19 +1355,22 @@
         <v>59</v>
       </c>
       <c r="AG4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>70</v>
       </c>
       <c r="P5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="5">
         <v>1</v>
@@ -1419,8 +1437,11 @@
       <c r="AF5" s="5">
         <v>0</v>
       </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -1434,7 +1455,7 @@
         <v>67</v>
       </c>
       <c r="P6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
@@ -1484,8 +1505,11 @@
       <c r="AF6" s="5">
         <v>0</v>
       </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -1499,7 +1523,7 @@
         <v>66</v>
       </c>
       <c r="P7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
@@ -1549,8 +1573,11 @@
       <c r="AF7" s="5">
         <v>0</v>
       </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -1564,7 +1591,7 @@
         <v>66</v>
       </c>
       <c r="P8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
@@ -1614,8 +1641,11 @@
       <c r="AF8" s="5">
         <v>0</v>
       </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -1629,7 +1659,7 @@
         <v>66</v>
       </c>
       <c r="P9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="5">
         <v>0</v>
@@ -1679,8 +1709,11 @@
       <c r="AF9" s="5">
         <v>0</v>
       </c>
+      <c r="AG9" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -1712,7 +1745,7 @@
         <v>100</v>
       </c>
       <c r="P10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="5">
         <v>1</v>
@@ -1762,8 +1795,11 @@
       <c r="AF10" s="5">
         <v>0</v>
       </c>
+      <c r="AG10" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
@@ -1777,7 +1813,7 @@
         <v>67</v>
       </c>
       <c r="P11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
@@ -1827,8 +1863,11 @@
       <c r="AF11" s="5">
         <v>0</v>
       </c>
+      <c r="AG11" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>88</v>
       </c>
@@ -1842,7 +1881,7 @@
         <v>67</v>
       </c>
       <c r="P12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="5">
         <v>0</v>
@@ -1892,8 +1931,11 @@
       <c r="AF12" s="5">
         <v>0</v>
       </c>
+      <c r="AG12" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>83</v>
       </c>
@@ -1907,7 +1949,7 @@
         <v>66</v>
       </c>
       <c r="P13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="6">
         <v>0</v>
@@ -1957,8 +1999,11 @@
       <c r="AF13" s="6">
         <v>0</v>
       </c>
+      <c r="AG13" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>90</v>
       </c>
@@ -1975,7 +2020,7 @@
         <v>91</v>
       </c>
       <c r="P14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="6">
         <v>1</v>
@@ -2025,8 +2070,11 @@
       <c r="AF14" s="6">
         <v>0</v>
       </c>
+      <c r="AG14" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>92</v>
       </c>
@@ -2043,7 +2091,7 @@
         <v>93</v>
       </c>
       <c r="P15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="6">
         <v>1</v>
@@ -2093,8 +2141,11 @@
       <c r="AF15" s="6">
         <v>0</v>
       </c>
+      <c r="AG15" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>94</v>
       </c>
@@ -2111,7 +2162,7 @@
         <v>95</v>
       </c>
       <c r="P16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="6">
         <v>0</v>
@@ -2161,8 +2212,11 @@
       <c r="AF16" s="6">
         <v>0</v>
       </c>
+      <c r="AG16" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>96</v>
       </c>
@@ -2176,7 +2230,7 @@
         <v>67</v>
       </c>
       <c r="P17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="6">
         <v>0</v>
@@ -2226,8 +2280,11 @@
       <c r="AF17" s="6">
         <v>0</v>
       </c>
+      <c r="AG17" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
@@ -2241,7 +2298,7 @@
         <v>67</v>
       </c>
       <c r="P18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="6">
         <v>0</v>
@@ -2289,6 +2346,9 @@
         <v>0</v>
       </c>
       <c r="AF18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0">
+    <comment ref="M13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0" shapeId="0">
+    <comment ref="O13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
   <si>
     <t>#class</t>
   </si>
@@ -317,9 +317,6 @@
     <t>record</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>经验</t>
   </si>
   <si>
@@ -350,24 +347,6 @@
     <t>roomserverid</t>
   </si>
   <si>
-    <t>道具背包</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>道具</t>
-  </si>
-  <si>
     <t>战斗结束的名次( 服务器使用 )</t>
   </si>
   <si>
@@ -380,34 +359,13 @@
     <t>kill</t>
   </si>
   <si>
-    <t>配置表id</t>
-  </si>
-  <si>
     <t>道具id</t>
   </si>
   <si>
-    <t>数量</t>
-  </si>
-  <si>
     <t>道具数量</t>
   </si>
   <si>
-    <t>有效时间, 0=永久道具</t>
-  </si>
-  <si>
     <t>道具有效时间(单位:秒)</t>
-  </si>
-  <si>
-    <t>道具已经使用的次数</t>
-  </si>
-  <si>
-    <t>usecount</t>
-  </si>
-  <si>
-    <t>道具在背包中的位置索引</t>
-  </si>
-  <si>
-    <t>index</t>
   </si>
   <si>
     <t>Basic(int)</t>
@@ -439,6 +397,102 @@
   </si>
   <si>
     <t>Client(int)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日最好战绩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日最好战绩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最好战绩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>asic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家段位积分</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>today</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yestoday</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ever</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战绩列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战绩</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,6 +666,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,13 +1044,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF10" sqref="AF10"/>
+      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,13 +1129,13 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>14</v>
@@ -1129,7 +1186,7 @@
         <v>29</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>30</v>
@@ -1298,13 +1355,13 @@
         <v>44</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>45</v>
@@ -1340,7 +1397,7 @@
         <v>55</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>56</v>
@@ -1355,7 +1412,7 @@
         <v>59</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>60</v>
@@ -1371,94 +1428,109 @@
       </c>
     </row>
     <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="A5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>1</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>0</v>
-      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="P6" s="5">
         <v>0</v>
       </c>
       <c r="Q6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="5">
         <v>0</v>
@@ -1488,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
@@ -1511,16 +1583,16 @@
     </row>
     <row r="7" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -1541,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="5">
         <v>0</v>
@@ -1579,13 +1651,13 @@
     </row>
     <row r="8" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>66</v>
@@ -1647,13 +1719,13 @@
     </row>
     <row r="9" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>66</v>
@@ -1713,42 +1785,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="5">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="5">
         <v>0</v>
@@ -1763,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="5">
         <v>0</v>
@@ -1772,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="Y10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="5">
         <v>0</v>
@@ -1801,13 +1855,13 @@
     </row>
     <row r="11" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>67</v>
@@ -1869,13 +1923,13 @@
     </row>
     <row r="12" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>67</v>
@@ -1935,95 +1989,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-      <c r="V13" s="6">
-        <v>1</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="6">
+    <row r="13" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="5">
+        <v>100</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>1</v>
+      </c>
+      <c r="V13" s="5">
+        <v>1</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="P14" s="6">
         <v>0</v>
       </c>
       <c r="Q14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="6">
         <v>0</v>
@@ -2035,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="6">
         <v>1</v>
@@ -2076,19 +2142,19 @@
     </row>
     <row r="15" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>67</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="P15" s="6">
         <v>0</v>
@@ -2139,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="6">
         <v>0</v>
@@ -2147,25 +2213,25 @@
     </row>
     <row r="16" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="P16" s="6">
         <v>0</v>
       </c>
       <c r="Q16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="6">
         <v>0</v>
@@ -2210,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="6">
         <v>0</v>
@@ -2218,16 +2284,19 @@
     </row>
     <row r="17" spans="1:33" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>
@@ -2278,77 +2347,9 @@
         <v>0</v>
       </c>
       <c r="AF17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>1</v>
-      </c>
-      <c r="V18" s="6">
-        <v>1</v>
-      </c>
-      <c r="W18" s="6">
-        <v>0</v>
-      </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>#class</t>
   </si>
@@ -472,27 +472,31 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>战绩列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战绩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>ever</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>战绩列表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>战绩</t>
+    <t>uint64</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1047,10 +1051,10 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1796,7 +1800,7 @@
         <v>78</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
@@ -1991,19 +1995,19 @@
     </row>
     <row r="13" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>65</v>
@@ -2012,7 +2016,7 @@
         <v>65</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M13" s="5">
         <v>100</v>
@@ -2077,13 +2081,13 @@
         <v>94</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P14" s="6">
         <v>0</v>
@@ -2151,7 +2155,7 @@
         <v>103</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>83</v>
@@ -2222,7 +2226,7 @@
         <v>104</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>84</v>
@@ -2290,7 +2294,7 @@
         <v>98</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>66</v>

--- a/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -359,15 +359,6 @@
     <t>kill</t>
   </si>
   <si>
-    <t>道具id</t>
-  </si>
-  <si>
-    <t>道具数量</t>
-  </si>
-  <si>
-    <t>道具有效时间(单位:秒)</t>
-  </si>
-  <si>
     <t>Basic(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -468,10 +459,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>yestoday</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>战绩列表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -497,6 +484,22 @@
   </si>
   <si>
     <t>uint64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>yesterday</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日最好战绩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日最好战绩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最好战绩</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1051,10 +1054,10 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1133,13 +1136,13 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>14</v>
@@ -1190,7 +1193,7 @@
         <v>29</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>30</v>
@@ -1359,13 +1362,13 @@
         <v>44</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>45</v>
@@ -1401,7 +1404,7 @@
         <v>55</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>56</v>
@@ -1416,7 +1419,7 @@
         <v>59</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>60</v>
@@ -1433,13 +1436,13 @@
     </row>
     <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
@@ -1800,7 +1803,7 @@
         <v>78</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
@@ -1995,19 +1998,19 @@
     </row>
     <row r="13" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>65</v>
@@ -2016,7 +2019,7 @@
         <v>65</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M13" s="5">
         <v>100</v>
@@ -2078,13 +2081,13 @@
     </row>
     <row r="14" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>67</v>
@@ -2146,19 +2149,19 @@
     </row>
     <row r="15" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="P15" s="6">
         <v>0</v>
@@ -2217,19 +2220,19 @@
     </row>
     <row r="16" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="P16" s="6">
         <v>0</v>
@@ -2288,19 +2291,19 @@
     </row>
     <row r="17" spans="1:33" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>66</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>

--- a/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -281,9 +281,6 @@
     <t>Relation(int)</t>
   </si>
   <si>
-    <t>Group(int)</t>
-  </si>
-  <si>
     <t>Guild(int)</t>
   </si>
   <si>
@@ -500,6 +497,10 @@
   </si>
   <si>
     <t>历史最好战绩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1054,10 +1055,10 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1136,13 +1137,13 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>14</v>
@@ -1193,7 +1194,7 @@
         <v>29</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>30</v>
@@ -1362,13 +1363,13 @@
         <v>44</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>45</v>
@@ -1404,49 +1405,49 @@
         <v>55</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="AD4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AG4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1519,19 +1520,19 @@
     </row>
     <row r="6" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -1590,16 +1591,16 @@
     </row>
     <row r="7" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -1658,16 +1659,16 @@
     </row>
     <row r="8" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="5">
         <v>0</v>
@@ -1726,16 +1727,16 @@
     </row>
     <row r="9" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P9" s="5">
         <v>0</v>
@@ -1794,16 +1795,16 @@
     </row>
     <row r="10" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
@@ -1862,16 +1863,16 @@
     </row>
     <row r="11" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P11" s="5">
         <v>0</v>
@@ -1930,16 +1931,16 @@
     </row>
     <row r="12" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P12" s="5">
         <v>0</v>
@@ -1998,28 +1999,28 @@
     </row>
     <row r="13" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="H13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="M13" s="5">
         <v>100</v>
@@ -2081,16 +2082,16 @@
     </row>
     <row r="14" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P14" s="6">
         <v>0</v>
@@ -2149,19 +2150,19 @@
     </row>
     <row r="15" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P15" s="6">
         <v>0</v>
@@ -2220,19 +2221,19 @@
     </row>
     <row r="16" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P16" s="6">
         <v>0</v>
@@ -2291,19 +2292,19 @@
     </row>
     <row r="17" spans="1:33" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>

--- a/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -1055,10 +1055,10 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="AG13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="AG15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t>#class</t>
   </si>
@@ -501,6 +501,14 @@
   </si>
   <si>
     <t>Team(int)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(int)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步客户端</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1052,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,26 +1088,26 @@
     <col min="20" max="20" width="17.125" style="7" customWidth="1"/>
     <col min="21" max="21" width="11" style="7" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="7" customWidth="1"/>
-    <col min="23" max="23" width="15" style="7" customWidth="1"/>
-    <col min="24" max="24" width="11" style="7" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="7" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="7" customWidth="1"/>
-    <col min="28" max="31" width="9" style="7" customWidth="1"/>
-    <col min="32" max="32" width="11" style="7" customWidth="1"/>
-    <col min="33" max="33" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.375" style="7" customWidth="1"/>
-    <col min="35" max="35" width="16.25" style="7" customWidth="1"/>
-    <col min="36" max="36" width="19.625" style="7" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="7" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="7"/>
+    <col min="23" max="24" width="15" style="7" customWidth="1"/>
+    <col min="25" max="25" width="11" style="7" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="7" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="7" customWidth="1"/>
+    <col min="29" max="32" width="9" style="7" customWidth="1"/>
+    <col min="33" max="33" width="11" style="7" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.375" style="7" customWidth="1"/>
+    <col min="36" max="36" width="16.25" style="7" customWidth="1"/>
+    <col min="37" max="37" width="19.625" style="7" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="7" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1167,49 +1175,52 @@
         <v>20</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1283,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="3">
         <v>1</v>
@@ -1292,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="3">
         <v>3</v>
@@ -1321,8 +1332,11 @@
       <c r="AK3" s="3">
         <v>3</v>
       </c>
+      <c r="AL3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1393,49 +1407,52 @@
         <v>51</v>
       </c>
       <c r="X4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>97</v>
       </c>
@@ -1484,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="9">
         <v>1</v>
@@ -1511,14 +1528,17 @@
         <v>1</v>
       </c>
       <c r="AG5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
     </row>
-    <row r="6" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -1568,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="AA6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="5">
         <v>0</v>
@@ -1588,8 +1608,11 @@
       <c r="AG6" s="5">
         <v>0</v>
       </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -1656,8 +1679,11 @@
       <c r="AG7" s="5">
         <v>0</v>
       </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>72</v>
       </c>
@@ -1724,8 +1750,11 @@
       <c r="AG8" s="5">
         <v>0</v>
       </c>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
@@ -1792,8 +1821,11 @@
       <c r="AG9" s="5">
         <v>0</v>
       </c>
+      <c r="AH9" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -1860,8 +1892,11 @@
       <c r="AG10" s="5">
         <v>0</v>
       </c>
+      <c r="AH10" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -1902,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="5">
         <v>1</v>
@@ -1911,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="AB11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="5">
         <v>0</v>
@@ -1928,8 +1963,11 @@
       <c r="AG11" s="5">
         <v>0</v>
       </c>
+      <c r="AH11" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -1970,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="5">
         <v>1</v>
@@ -1979,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="AB12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="5">
         <v>0</v>
@@ -1996,8 +2034,11 @@
       <c r="AG12" s="5">
         <v>0</v>
       </c>
+      <c r="AH12" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>100</v>
       </c>
@@ -2053,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="5">
         <v>1</v>
@@ -2062,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="AB13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="5">
         <v>0</v>
@@ -2074,13 +2115,16 @@
         <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="5">
         <v>1</v>
       </c>
+      <c r="AH13" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>90</v>
       </c>
@@ -2120,8 +2164,8 @@
       <c r="X14" s="6">
         <v>0</v>
       </c>
-      <c r="Y14" s="8">
-        <v>1</v>
+      <c r="Y14" s="6">
+        <v>0</v>
       </c>
       <c r="Z14" s="8">
         <v>1</v>
@@ -2129,8 +2173,8 @@
       <c r="AA14" s="8">
         <v>1</v>
       </c>
-      <c r="AB14" s="6">
-        <v>0</v>
+      <c r="AB14" s="8">
+        <v>1</v>
       </c>
       <c r="AC14" s="6">
         <v>0</v>
@@ -2147,8 +2191,11 @@
       <c r="AG14" s="6">
         <v>0</v>
       </c>
+      <c r="AH14" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>92</v>
       </c>
@@ -2191,8 +2238,8 @@
       <c r="X15" s="6">
         <v>0</v>
       </c>
-      <c r="Y15" s="8">
-        <v>1</v>
+      <c r="Y15" s="6">
+        <v>0</v>
       </c>
       <c r="Z15" s="8">
         <v>1</v>
@@ -2200,8 +2247,8 @@
       <c r="AA15" s="8">
         <v>1</v>
       </c>
-      <c r="AB15" s="6">
-        <v>0</v>
+      <c r="AB15" s="8">
+        <v>1</v>
       </c>
       <c r="AC15" s="6">
         <v>0</v>
@@ -2213,13 +2260,16 @@
         <v>0</v>
       </c>
       <c r="AF15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="6">
         <v>1</v>
       </c>
+      <c r="AH15" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>91</v>
       </c>
@@ -2262,8 +2312,8 @@
       <c r="X16" s="6">
         <v>0</v>
       </c>
-      <c r="Y16" s="8">
-        <v>1</v>
+      <c r="Y16" s="6">
+        <v>0</v>
       </c>
       <c r="Z16" s="8">
         <v>1</v>
@@ -2271,8 +2321,8 @@
       <c r="AA16" s="8">
         <v>1</v>
       </c>
-      <c r="AB16" s="6">
-        <v>0</v>
+      <c r="AB16" s="8">
+        <v>1</v>
       </c>
       <c r="AC16" s="6">
         <v>0</v>
@@ -2284,13 +2334,16 @@
         <v>0</v>
       </c>
       <c r="AF16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>93</v>
       </c>
@@ -2333,8 +2386,8 @@
       <c r="X17" s="6">
         <v>0</v>
       </c>
-      <c r="Y17" s="8">
-        <v>1</v>
+      <c r="Y17" s="6">
+        <v>0</v>
       </c>
       <c r="Z17" s="8">
         <v>1</v>
@@ -2342,8 +2395,8 @@
       <c r="AA17" s="8">
         <v>1</v>
       </c>
-      <c r="AB17" s="6">
-        <v>0</v>
+      <c r="AB17" s="8">
+        <v>1</v>
       </c>
       <c r="AC17" s="6">
         <v>0</v>
@@ -2355,9 +2408,12 @@
         <v>0</v>
       </c>
       <c r="AF17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="6">
         <v>0</v>
       </c>
     </row>
